--- a/results/sampled_results/general_sampled_sumary.xlsx
+++ b/results/sampled_results/general_sampled_sumary.xlsx
@@ -190,7 +190,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -247,7 +247,7 @@
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">E3/B4</f>
-        <v>0.33965844402277</v>
+        <v>0.171046344959388</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -255,7 +255,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2108</v>
+        <v>4186</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>9</v>
@@ -265,7 +265,7 @@
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">E4/B4</f>
-        <v>3.35009487666034</v>
+        <v>1.68705207835643</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,7 +273,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>252629</v>
+        <v>712899</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>11</v>
@@ -283,7 +283,7 @@
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">E5/B4</f>
-        <v>6.81878557874763</v>
+        <v>3.43382704252269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -295,7 +295,7 @@
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">E6/B4</f>
-        <v>0.0317836812144212</v>
+        <v>0.0160057333970377</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,7 +307,7 @@
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">E7/B4</f>
-        <v>0.648956356736243</v>
+        <v>0.326803631151457</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,7 +319,7 @@
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">E8/B4</f>
-        <v>0.606261859582543</v>
+        <v>0.305303392259914</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,7 +331,7 @@
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">E9/B4</f>
-        <v>4.54554079696395</v>
+        <v>2.28905876731964</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,7 +343,7 @@
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">E10/B4</f>
-        <v>3.77514231499051</v>
+        <v>1.9010989010989</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,7 +355,7 @@
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">E11/B4</f>
-        <v>10.4169829222011</v>
+        <v>5.24581939799331</v>
       </c>
     </row>
   </sheetData>
